--- a/Project_Management/Work breakdown structure.xlsx
+++ b/Project_Management/Work breakdown structure.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_9248381DC2F30A436F107A39913E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A5E7133-E534-472B-8355-B0A48E74D268}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="week5" sheetId="5" r:id="rId5"/>
     <sheet name="week6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,10 +34,61 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Tarefas da semana:</t>
+  </si>
+  <si>
+    <t>Fazer a hierarquia de ficheiros e adiconá-los</t>
+  </si>
+  <si>
+    <t>Jogar o jogo para conhecer melhor o projeto</t>
+  </si>
+  <si>
+    <t>Fazer fork ao projeto e adicionar os membros ao mesmo</t>
+  </si>
+  <si>
+    <t>Alterar o readme file no repositório git</t>
+  </si>
+  <si>
+    <t>Meeting semanal</t>
+  </si>
+  <si>
+    <t>Dar ideias no servidor de discord e discuti-las</t>
+  </si>
+  <si>
+    <t>Fazer servidor de discord para o trabalho e organiza-lo</t>
+  </si>
+  <si>
+    <t>Analisar o código dado</t>
+  </si>
+  <si>
+    <t>Começar a fazer o use case diagram</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,8 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,79 +427,140 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785E90FF-B92B-4BBC-A46E-219FD45F2299}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770B9826-F239-47AF-8C3F-D00D6804FA57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF669F95-F853-4486-93B4-8E3DA249B68E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E06D4-C64E-41C6-B86E-19135345D3E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A983637-C20A-4351-BDF1-1B2D937DC546}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project_Management/Work breakdown structure.xlsx
+++ b/Project_Management/Work breakdown structure.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tarefas da semana:</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Analisar o código dado</t>
-  </si>
-  <si>
-    <t>Começar a fazer o use case diagram</t>
   </si>
 </sst>
 </file>
@@ -427,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,7 +435,7 @@
   <dimension ref="B3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,11 +487,6 @@
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">

--- a/Project_Management/Work breakdown structure.xlsx
+++ b/Project_Management/Work breakdown structure.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tarefas da semana:</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Analisar o código dado</t>
+  </si>
+  <si>
+    <t>Pesquisar como se joga o jogo</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,7 +438,7 @@
   <dimension ref="B3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,6 +491,14 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>

--- a/Project_Management/Work breakdown structure.xlsx
+++ b/Project_Management/Work breakdown structure.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Tarefas da semana:</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Alterar o readme file no repositório git</t>
   </si>
   <si>
-    <t>Meeting semanal</t>
-  </si>
-  <si>
     <t>Dar ideias no servidor de discord e discuti-las</t>
   </si>
   <si>
@@ -65,6 +62,12 @@
   </si>
   <si>
     <t>Pesquisar como se joga o jogo</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Fazer pdf dos 3 User Stories mais votados pela equipa e submeter no moodle</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -478,27 +481,29 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>

--- a/Project_Management/Work breakdown structure.xlsx
+++ b/Project_Management/Work breakdown structure.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tarefas da semana:</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Alterar o readme file no repositório git</t>
   </si>
   <si>
+    <t>Meeting semanal</t>
+  </si>
+  <si>
     <t>Dar ideias no servidor de discord e discuti-las</t>
   </si>
   <si>
@@ -62,12 +65,6 @@
   </si>
   <si>
     <t>Pesquisar como se joga o jogo</t>
-  </si>
-  <si>
-    <t>Meetings</t>
-  </si>
-  <si>
-    <t>Fazer pdf dos 3 User Stories mais votados pela equipa e submeter no moodle</t>
   </si>
 </sst>
 </file>
@@ -461,7 +458,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -481,29 +478,27 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>

--- a/Project_Management/Work breakdown structure.xlsx
+++ b/Project_Management/Work breakdown structure.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbern\OneDrive\Documentos\GitHub\SE2324_55204_56837_58119_58427_58535_59472\Project_Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA418E6-7E36-4A51-9E91-B95B20ED990A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -19,23 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Tarefas da semana:</t>
   </si>
@@ -69,11 +64,20 @@
   <si>
     <t>Fazer pdf dos 3 User Stories mais votados pela equipa e submeter no moodle</t>
   </si>
+  <si>
+    <t>Tarefas da Semana:</t>
+  </si>
+  <si>
+    <t>Organizar a equipa e dividir tarefas</t>
+  </si>
+  <si>
+    <t>Decompor os Epics em User Stories mais específicas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,11 +123,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,82 +433,81 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -515,60 +517,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project_Management/Work breakdown structure.xlsx
+++ b/Project_Management/Work breakdown structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbern\OneDrive\Documentos\GitHub\SE2324_55204_56837_58119_58427_58535_59472\Project_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Desktop\ES2324\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA418E6-7E36-4A51-9E91-B95B20ED990A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32275CB3-6F5D-4CE5-890C-21D6E14320AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Tarefas da semana:</t>
   </si>
@@ -68,10 +68,28 @@
     <t>Tarefas da Semana:</t>
   </si>
   <si>
-    <t>Organizar a equipa e dividir tarefas</t>
-  </si>
-  <si>
-    <t>Decompor os Epics em User Stories mais específicas</t>
+    <t>Obter as Code Base Metrics</t>
+  </si>
+  <si>
+    <t>Identificar os Code Smells</t>
+  </si>
+  <si>
+    <t>Fazer os Use Case Diagrams</t>
+  </si>
+  <si>
+    <t>Compreender o código do projeto</t>
+  </si>
+  <si>
+    <t>Organizar o repositório no Github</t>
+  </si>
+  <si>
+    <t>Identificar 3 Design Patterns</t>
+  </si>
+  <si>
+    <t>Jogar FreeCol</t>
+  </si>
+  <si>
+    <t>Reunir o grupo para organizar a entrega da 2ª fase do projeto</t>
   </si>
 </sst>
 </file>
@@ -447,67 +465,67 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -518,30 +536,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:B5"/>
+  <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +603,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -567,7 +615,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -579,7 +627,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -591,7 +639,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project_Management/Work breakdown structure.xlsx
+++ b/Project_Management/Work breakdown structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Desktop\ES2324\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corre\Documents\GitHub\freecol-SE-exercise\Project_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32275CB3-6F5D-4CE5-890C-21D6E14320AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E69361-E971-435F-B7C4-4E3F9C73ADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Tarefas da semana:</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>Reunir o grupo para organizar a entrega da 2ª fase do projeto</t>
+  </si>
+  <si>
+    <t>Refinar User Stories</t>
+  </si>
+  <si>
+    <t>Ver Codigo</t>
+  </si>
+  <si>
+    <t>Trabalhar user story 1</t>
+  </si>
+  <si>
+    <t>Trabalhar user story 2</t>
+  </si>
+  <si>
+    <t>Trabalhar user story 3</t>
+  </si>
+  <si>
+    <t>Meeting semanal</t>
   </si>
 </sst>
 </file>
@@ -141,10 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,67 +486,67 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="70.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -538,56 +559,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="2" max="2" width="67.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -603,7 +624,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -611,12 +632,73 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B7:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -627,7 +709,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -639,7 +721,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project_Management/Work breakdown structure.xlsx
+++ b/Project_Management/Work breakdown structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corre\Documents\GitHub\freecol-SE-exercise\Project_Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\Documents\GitHub\SE2324\Project_Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E69361-E971-435F-B7C4-4E3F9C73ADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2979A34-47DC-4133-A7D7-2ABC5ADEDC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,28 @@
     <sheet name="week5" sheetId="5" r:id="rId5"/>
     <sheet name="week6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Tarefas da semana:</t>
   </si>
@@ -108,6 +119,30 @@
   </si>
   <si>
     <t>Meeting semanal</t>
+  </si>
+  <si>
+    <t>Criar video demonstrativo</t>
+  </si>
+  <si>
+    <t>Finalizar User Story 1</t>
+  </si>
+  <si>
+    <t>Finalizar User Story 2</t>
+  </si>
+  <si>
+    <t>Merge Projeto</t>
+  </si>
+  <si>
+    <t>Analise Final</t>
+  </si>
+  <si>
+    <t>Reunião final sobre o projeto</t>
+  </si>
+  <si>
+    <t>Revisão do repositorio e commits</t>
+  </si>
+  <si>
+    <t>Criar Relatorios Finais</t>
   </si>
 </sst>
 </file>
@@ -159,13 +194,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,7 +220,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -486,67 +522,67 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.7265625" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
     </row>
   </sheetData>
@@ -563,52 +599,52 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.1796875" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -622,9 +658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -634,55 +670,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
@@ -691,13 +730,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -709,7 +748,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -717,12 +756,67 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>